--- a/pred_ohlcv/54_21/2019-11-02 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 FNB ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-918826.7442999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-913605.0263999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-917824.2339999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-917814.2339999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-931880.4731999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-929802.9056324322</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1022449.293432432</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1027964.231832432</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-781715.9636324324</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1081715.963632432</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1075183.409349824</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1223187.662849823</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1223177.662849823</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1391543.004449823</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1272983.113049824</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-628172.8602498235</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-746667.3356324323</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-335051.8964150409</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-592091.0751150409</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-461610.1943772031</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-466084.2758772031</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-552335.8573312572</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>6643870.128102698</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9884409.263402699</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>9572465.359602695</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10733081.6855027</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10648808.4977027</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>10631573.0031027</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>10109005.3735027</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10960635.5959027</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>11108882.2050027</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>11053285.25370269</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>11047013.53220269</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>10146110.13423055</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>13515385.2719456</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>14933575.97466793</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>15868011.88596793</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>16562739.15066792</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17174089.1922316</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>17244605.3553316</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>16551387.75093908</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>17674875.88512185</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>18262954.84542185</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>22147381.71429976</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>20225272.91659976</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>20882203.77089976</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>19194175.67129976</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>17912024.69252086</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>17510476.70882086</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16804009.23384179</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>18072395.37534179</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4844143.204731965</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4901293.872731964</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1003817.4427</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-829837.3008999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-911057.0758999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-327339.1048150409</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-248566.0778150409</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-465661.8153150409</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-66431.21793125721</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-547550.2902312572</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>5370867.413902699</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>6643870.128102698</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>7683174.381802699</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>8045483.602302698</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>9884409.263402699</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>9726535.759002699</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>9980309.566502698</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>9572465.359602695</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>9330661.152402695</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>10425452.2672027</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>10733081.6855027</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10648808.4977027</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9457004.947402697</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9712635.251702698</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>12952969.6921027</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11329806.5367027</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>10631573.0031027</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11612060.6016027</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>10109005.3735027</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>10960635.5959027</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>11108882.2050027</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>11053285.25370269</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>11095965.02780269</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>11047047.28220269</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>11047013.53220269</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>11192867.90543056</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>10948067.35093055</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>10146110.13423055</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>13529907.13690657</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>12854686.28870657</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>13515385.2719456</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>14933575.97466793</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>15868011.88596793</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>16562739.15066792</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17174089.1922316</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>18017353.6526316</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>17244605.3553316</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>16551387.75093908</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>16320680.88603908</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>16514062.56722185</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>17674875.88512185</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>18262954.84542185</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>21914030.03882747</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>24336492.88101395</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>22147381.71429976</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>20225272.91659976</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>20882203.77089976</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>19194175.67129976</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>17775821.39652086</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>17912024.69252086</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>17510476.70882086</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>16804009.23384179</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>18279856.71534179</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>18072395.37534179</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>18281483.86414179</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>18208513.05874179</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>17577034.26614179</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>17642436.0520697</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>17474271.7401697</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>17598307.55579296</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>17208479.14829296</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>17340305.49029296</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>17265689.73749296</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>4844143.204731965</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>4901293.872731964</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
